--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,20 +550,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001651</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信新蓝筹股票A</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011476</t>
+          <t>010744</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信新蓝筹股票C</t>
+          <t>工银瑞信灵动价值混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>40.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>519995</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>长信金利趋势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>004856</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>广发中证全指建筑材料指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -706,25 +786,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004573</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华鑫泰灵活配置混合</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004856</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数A</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>005660</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>嘉实资源精选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001007</t>
+          <t>001651</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安鑫安灵活配置混合</t>
+          <t>工银瑞信新蓝筹股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000058</t>
+          <t>001716</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安安泰灵活配置混合</t>
+          <t>工银新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.99</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000417</t>
+          <t>001007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安新精选灵活配置混合</t>
+          <t>国联安鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.81</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>519095</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>新华行业周期轮换混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006568</t>
+          <t>519158</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国联安行业领先混合</t>
+          <t>新华趋势领航混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001060</t>
+          <t>004076</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
+          <t>国联安锐意成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27.57</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010744</t>
+          <t>000058</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合A</t>
+          <t>国联安安泰灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.66</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010745</t>
+          <t>001294</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合C</t>
+          <t>新华战略新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>47.66</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001294</t>
+          <t>001997</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新华战略新兴产业灵活配置混合</t>
+          <t>工银新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519095</t>
+          <t>006568</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>新华行业周期轮换混合</t>
+          <t>国联安行业领先混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001716</t>
+          <t>010745</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银新趋势灵活配置混合A</t>
+          <t>工银瑞信灵动价值混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>47.36</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001997</t>
+          <t>005661</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银新趋势灵活配置混合C</t>
+          <t>嘉实资源精选股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.36</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>000417</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>国联安新精选灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>44.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>519157</t>
+          <t>004573</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合C</t>
+          <t>新华鑫泰灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519158</t>
+          <t>001060</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>新华趋势领航混合</t>
+          <t>前海开源高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519995</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长信金利趋势混合</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005660</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票A</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005661</t>
+          <t>519157</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票C</t>
+          <t>新华行业轮换灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004076</t>
+          <t>011476</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国联安锐意成长混合</t>
+          <t>工银瑞信新蓝筹股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1942,4 +1943,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6699</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3177,4 +3178,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3186,7 +3187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3197,17 +3198,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3217,14 +3238,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.71</v>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3233,14 +3276,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3249,14 +3314,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.46</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3265,13 +3352,759 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4003,7 +4004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4014,17 +4015,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4034,14 +4055,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.6</v>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4050,14 +4093,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.71</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4066,14 +4131,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4082,14 +4169,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.46</v>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4098,13 +4207,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5086,7 +5087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5097,17 +5098,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5117,14 +5138,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.63</v>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5133,14 +5176,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.6</v>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5149,14 +5214,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.71</v>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5165,14 +5252,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5181,14 +5290,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.46</v>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5197,13 +5328,637 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>3.59</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>3.63</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>5.71</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4.46</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -600,6 +617,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-5.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-0.1550</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1337,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2419,7 +3252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3235,7 +4068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4469,7 +5302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4753,7 +5586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5835,7 +6668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600801-华新水泥.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>3.59</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>3.63</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>2.6</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>5.71</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>4.46</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,162 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -683,22 +832,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>44.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.16</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4106</t>
+          <t>1.1502</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,36 +860,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001719</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银国家战略股票</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>81.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3496</t>
+          <t>0.5640</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +898,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159745</t>
+          <t>001719</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证全指建筑材料ETF</t>
+          <t>工银国家战略股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2883</t>
+          <t>0.3294</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,26 +946,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.53</t>
+          <t>86.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2780</t>
+          <t>0.2544</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +974,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004856</t>
+          <t>159745</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数A</t>
+          <t>国泰中证全指建筑材料ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2635</t>
+          <t>0.2049</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1012,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>004856</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>广发中证全指建筑材料指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2105</t>
+          <t>0.1942</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1050,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004405</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国寿安保稳寿混合A</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24.56</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1264</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1088,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>516750</t>
+          <t>004405</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证全指建筑材料ETF</t>
+          <t>国寿安保稳寿混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.46</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0478</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1126,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>516750</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>富国中证全指建筑材料ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0241</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1015,32 +1164,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012419</t>
+          <t>007675</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘国证建材指数C</t>
+          <t>工银产业升级股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1053,36 +1202,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011761</t>
+          <t>007674</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平安鑫瑞混合A</t>
+          <t>工银产业升级股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1240,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>159787</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>易方达中证全指建筑材料ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>96.55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1278,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004406</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国寿安保稳寿混合C</t>
+          <t>中银稳进策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24.56</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1316,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159787</t>
+          <t>004406</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达中证全指建筑材料ETF</t>
+          <t>国寿安保稳寿混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +1354,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011762</t>
+          <t>008719</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安鑫瑞混合C</t>
+          <t>德邦安顺混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>23.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +1392,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012405</t>
+          <t>008720</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘国证建材指数A</t>
+          <t>德邦安顺混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>23.27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +1430,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011074</t>
+          <t>005260</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华安润混合C</t>
+          <t>银华稳健增利灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>91.18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +1468,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008719</t>
+          <t>005261</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>德邦安顺混合A</t>
+          <t>银华稳健增利灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22.84</t>
+          <t>91.18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1506,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008720</t>
+          <t>481001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>德邦安顺混合C</t>
+          <t>工银核心价值混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22.84</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1542,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>481001</t>
+          <t>016520</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银核心价值混合A</t>
+          <t>中银稳进策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-5.40</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>85.16</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>-0.1550</t>
-        </is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1433,6 +1578,822 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-5.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-0.1550</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2170,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3252,7 +4213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4068,7 +5029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5302,7 +6263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5586,7 +6547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6666,136 +7627,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004856</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6027</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004857</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1608</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>